--- a/数据整理/stocks/港股/02400-心动公司.xlsx
+++ b/数据整理/stocks/港股/02400-心动公司.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>31.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>58.06</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.90</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9181</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>58.06</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.90</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004266</t>
+          <t>010213</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+          <t>中欧互联网先锋混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>92.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7925</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010754</t>
+          <t>010214</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+          <t>中欧互联网先锋混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>16.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6971</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -660,15 +720,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>50.51</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.52</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010213</t>
+          <t>004266</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧互联网先锋混合A</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010214</t>
+          <t>010754</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧互联网先锋混合C</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02400-心动公司.xlsx
+++ b/数据整理/stocks/港股/02400-心动公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4364</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9910</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02400-心动公司.xlsx
+++ b/数据整理/stocks/港股/02400-心动公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02400-心动公司.xlsx
+++ b/数据整理/stocks/港股/02400-心动公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02400-心动公司.xlsx
+++ b/数据整理/stocks/港股/02400-心动公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1329</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.45</v>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4603</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.68</v>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1338,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.07</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02400-心动公司.xlsx
+++ b/数据整理/stocks/港股/02400-心动公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1533,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,17 +1545,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1564,14 +1585,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2890</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.29</v>
       </c>
     </row>
     <row r="3">
@@ -1580,14 +1623,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1596,14 +1661,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.45</v>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1612,14 +1699,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4.68</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="6">
@@ -1628,13 +1837,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.07</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02400-心动公司.xlsx
+++ b/数据整理/stocks/港股/02400-心动公司.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,139 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010016</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏科技前沿6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>31.66</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>58.06</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9181</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010017</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏科技前沿6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>58.06</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1494</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,37 +467,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -639,36 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010213</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧互联网先锋混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>92.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.7925</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010214</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧互联网先锋混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6971</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.29</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501096</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>50.51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1532</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004266</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0320</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.45</v>
       </c>
     </row>
     <row r="6">
@@ -791,36 +551,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010754</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.07</v>
       </c>
     </row>
   </sheetData>
@@ -828,7 +582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -855,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -885,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010213</t>
+          <t>010389</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧互联网先锋混合A</t>
+          <t>易方达科益混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>96.22</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.4364</t>
+          <t>0.2890</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -923,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010214</t>
+          <t>011649</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧互联网先锋混合C</t>
+          <t>易方达逆向投资混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.54</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>85.02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9910</t>
+          <t>0.2067</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -961,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004266</t>
+          <t>011650</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+          <t>易方达逆向投资混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>85.02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0227</t>
+          <t>0.0541</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -999,36 +753,396 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010754</t>
+          <t>010390</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+          <t>易方达科益混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1329</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4603</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1195,7 +1309,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1235,26 +1349,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>69.25</t>
+          <t>96.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.93</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1329</t>
+          <t>5.4364</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1263,32 +1377,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010389</t>
+          <t>010214</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达科益混合A</t>
+          <t>中欧互联网先锋混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>17.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4603</t>
+          <t>0.9910</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1301,36 +1415,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010214</t>
+          <t>004266</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧互联网先锋混合C</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.93</t>
+          <t>93.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3798</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1339,188 +1453,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011649</t>
+          <t>010754</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达逆向投资混合A</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.02</t>
+          <t>93.79</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1866</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011650</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达逆向投资混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>74.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0682</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008869</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成恒享混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>21.92</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0393</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
         <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010390</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达科益混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008870</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成恒享混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>21.92</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1555,7 +1517,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1585,36 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010389</t>
+          <t>010213</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达科益混合A</t>
+          <t>中欧互联网先锋混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>92.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>93.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2890</t>
+          <t>3.7925</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1623,36 +1585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011649</t>
+          <t>010214</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达逆向投资混合A</t>
+          <t>中欧互联网先锋混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>16.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.02</t>
+          <t>93.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2067</t>
+          <t>0.6971</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1661,32 +1623,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011650</t>
+          <t>501096</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达逆向投资混合C</t>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.02</t>
+          <t>50.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0541</t>
+          <t>0.1532</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1699,36 +1661,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010390</t>
+          <t>004266</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达科益混合C</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>90.81</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1742,128 +1742,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>58.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9181</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>58.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
-        <v>6.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.68</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.07</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>